--- a/Coaches_carreers/Coaches/Bruno Lage.xlsx
+++ b/Coaches_carreers/Coaches/Bruno Lage.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE40"/>
+  <dimension ref="A1:AF48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,6 +593,11 @@
           <t>ProbA</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -606,34 +611,34 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43526</v>
+        <v>43471</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -642,57 +647,62 @@
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>2.25</v>
+        <v>1.22</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.3</v>
+        <v>12</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01999158249158247</v>
+        <v>0.023224043715847</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.424452861952862</v>
+        <v>0.796448087431694</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.2925084175084176</v>
+        <v>0.1434426229508197</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.2830387205387206</v>
+        <v>0.06010928961748632</v>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -707,93 +717,98 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>43535</v>
+        <v>43476</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Belenenses</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>13</v>
+      </c>
+      <c r="R3" t="n">
+        <v>16</v>
+      </c>
+      <c r="S3" t="n">
         <v>3</v>
       </c>
-      <c r="Q3" t="n">
-        <v>12</v>
-      </c>
-      <c r="R3" t="n">
-        <v>15</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
       <c r="T3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="n">
-        <v>1.18</v>
+        <v>8</v>
       </c>
       <c r="Z3" t="n">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="AA3" t="n">
-        <v>13</v>
+        <v>1.36</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.02241261563295464</v>
+        <v>0.02360681114551078</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.8250450114856895</v>
+        <v>0.1013931888544892</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.1204445272241882</v>
+        <v>0.1869195046439629</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.05451046129012228</v>
+        <v>0.711687306501548</v>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -808,11 +823,11 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>43541</v>
+        <v>43483</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Guimaraes</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -824,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -835,37 +850,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N4" t="n">
         <v>11</v>
       </c>
-      <c r="N4" t="n">
-        <v>9</v>
-      </c>
       <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
         <v>3</v>
       </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
       <c r="Q4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -876,25 +891,30 @@
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.01984126984126984</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.123015873015873</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.2301587301587301</v>
+        <v>0.2645502645502645</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.6468253968253967</v>
+        <v>0.5343915343915344</v>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -909,7 +929,7 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>43554</v>
+        <v>43494</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -918,14 +938,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -933,40 +953,40 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
+        <v>18</v>
+      </c>
+      <c r="N5" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>9</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>17</v>
+      </c>
+      <c r="R5" t="n">
         <v>15</v>
       </c>
-      <c r="N5" t="n">
-        <v>12</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9</v>
-      </c>
-      <c r="R5" t="n">
-        <v>13</v>
-      </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -977,25 +997,30 @@
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="Z5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.02311661506707948</v>
+        <v>0.023864258347017</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.8540763673890609</v>
+        <v>0.8382047071702244</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.1102167182662539</v>
+        <v>0.1189928845101259</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.03570691434468523</v>
+        <v>0.04280240831964967</v>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1010,11 +1035,11 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>43562</v>
+        <v>43499</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Sp Lisbon</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1023,7 +1048,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
@@ -1046,57 +1071,62 @@
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
+        <v>17</v>
+      </c>
+      <c r="N6" t="n">
+        <v>13</v>
+      </c>
+      <c r="O6" t="n">
         <v>6</v>
-      </c>
-      <c r="N6" t="n">
-        <v>18</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>7</v>
       </c>
       <c r="Q6" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="R6" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="n">
-        <v>15</v>
+        <v>3.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.2</v>
+        <v>2.37</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.02222222222222222</v>
+        <v>0.02236740619754096</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.04444444444444445</v>
+        <v>0.3002132389637494</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.1444444444444444</v>
+        <v>0.3002132389637494</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.8111111111111111</v>
+        <v>0.3995735220725012</v>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1111,7 +1141,7 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>43569</v>
+        <v>43506</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,14 +1150,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Setubal</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1135,10 +1165,10 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1147,28 +1177,28 @@
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="R7" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1179,25 +1209,30 @@
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="Z7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.02236652236652237</v>
+        <v>0.02311661506707948</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.810966810966811</v>
+        <v>0.8540763673890609</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.1204906204906205</v>
+        <v>0.1102167182662539</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.06854256854256854</v>
+        <v>0.03570691434468523</v>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1212,61 +1247,61 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>43577</v>
+        <v>43514</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Aves</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Maritimo</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O8" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q8" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="R8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
         <v>3</v>
@@ -1275,30 +1310,35 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="n">
-        <v>1.16</v>
+        <v>7</v>
       </c>
       <c r="Z8" t="n">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>1.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.023864258347017</v>
+        <v>0.02255639097744363</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.8382047071702244</v>
+        <v>0.1203007518796992</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.1189928845101259</v>
+        <v>0.18796992481203</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.04280240831964967</v>
+        <v>0.6917293233082706</v>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1313,31 +1353,31 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>43583</v>
+        <v>43521</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sp Braga</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1349,28 +1389,28 @@
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
+        <v>25</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>11</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
         <v>12</v>
       </c>
-      <c r="N9" t="n">
-        <v>17</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="R9" t="n">
+        <v>14</v>
+      </c>
+      <c r="S9" t="n">
         <v>3</v>
       </c>
-      <c r="P9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>14</v>
-      </c>
-      <c r="R9" t="n">
-        <v>16</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1381,25 +1421,30 @@
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
-        <v>5.25</v>
+        <v>1.14</v>
       </c>
       <c r="Z9" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.65</v>
+        <v>17</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.02106782106782109</v>
+        <v>0.02311661506707948</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.1694083694083694</v>
+        <v>0.8540763673890609</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.2455988455988456</v>
+        <v>0.1102167182662539</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.584992784992785</v>
+        <v>0.03570691434468523</v>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1414,34 +1459,34 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>43589</v>
+        <v>43526</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1450,57 +1495,62 @@
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
+        <v>7</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
         <v>12</v>
       </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>10</v>
-      </c>
       <c r="R10" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="n">
-        <v>1.12</v>
+        <v>2.25</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>3.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.02310924369747898</v>
+        <v>0.01999158249158247</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.8697478991596638</v>
+        <v>0.424452861952862</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.09453781512605043</v>
+        <v>0.2925084175084176</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.03571428571428573</v>
+        <v>0.2830387205387206</v>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1515,93 +1565,98 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>43597</v>
+        <v>43535</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
+        <v>22</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
         <v>12</v>
       </c>
-      <c r="N11" t="n">
-        <v>13</v>
-      </c>
-      <c r="O11" t="n">
-        <v>6</v>
-      </c>
-      <c r="P11" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9</v>
-      </c>
       <c r="R11" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>1.18</v>
       </c>
       <c r="Z11" t="n">
         <v>7</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.18</v>
+        <v>13</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.02454936776970677</v>
+        <v>0.02241261563295464</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.05878396556362656</v>
+        <v>0.8250450114856895</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.1183077750874361</v>
+        <v>0.1204445272241882</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.8229082593489374</v>
+        <v>0.05451046129012228</v>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1616,64 +1671,64 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>43603</v>
+        <v>43541</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>4</v>
       </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="N12" t="n">
+        <v>9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
         <v>17</v>
       </c>
-      <c r="O12" t="n">
-        <v>8</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>10</v>
       </c>
-      <c r="R12" t="n">
-        <v>3</v>
-      </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1684,31 +1739,36 @@
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="n">
-        <v>1.08</v>
+        <v>7</v>
       </c>
       <c r="Z12" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>1.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.02148468815135477</v>
+        <v>0.01984126984126984</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.9044412377745711</v>
+        <v>0.123015873015873</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.06942440275773613</v>
+        <v>0.2301587301587301</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.02613435946769284</v>
+        <v>0.6468253968253967</v>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2018-2019</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1717,7 +1777,7 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>43687</v>
+        <v>43554</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,11 +1786,11 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1741,14 +1801,14 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1756,22 +1816,22 @@
         <v>15</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="R13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
         <v>4</v>
@@ -1780,36 +1840,41 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="Z13" t="n">
         <v>7.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.02410845859121724</v>
+        <v>0.02311661506707948</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.8379605069260242</v>
+        <v>0.8540763673890609</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.1092248747421161</v>
+        <v>0.1102167182662539</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.05281461833185969</v>
+        <v>0.03570691434468523</v>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2018-2019</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1818,11 +1883,11 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>43694</v>
+        <v>43562</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Belenenses</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1831,10 +1896,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1842,40 +1907,40 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
+        <v>6</v>
+      </c>
+      <c r="N14" t="n">
+        <v>18</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
         <v>7</v>
       </c>
-      <c r="N14" t="n">
-        <v>21</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
       <c r="Q14" t="n">
+        <v>14</v>
+      </c>
+      <c r="R14" t="n">
         <v>11</v>
       </c>
-      <c r="R14" t="n">
-        <v>10</v>
-      </c>
       <c r="S14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1889,28 +1954,33 @@
         <v>15</v>
       </c>
       <c r="Z14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.023864258347017</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.04280240831964967</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.1189928845101259</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.8382047071702244</v>
+        <v>0.8111111111111111</v>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2018-2019</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1919,7 +1989,7 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>43701</v>
+        <v>43569</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1928,55 +1998,55 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Setubal</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R15" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="S15" t="n">
         <v>2</v>
       </c>
       <c r="T15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1987,31 +2057,36 @@
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="AA15" t="n">
-        <v>4.33</v>
+        <v>11</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.02165165979436064</v>
+        <v>0.02236652236652237</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.5046641296793235</v>
+        <v>0.810966810966811</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.2860406478979471</v>
+        <v>0.1204906204906205</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.2092952224227294</v>
+        <v>0.06854256854256854</v>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2018-2019</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2020,64 +2095,64 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>43709</v>
+        <v>43577</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sp Braga</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Maritimo</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
+        <v>25</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
         <v>11</v>
       </c>
-      <c r="N16" t="n">
-        <v>12</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2</v>
-      </c>
       <c r="P16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -2088,31 +2163,36 @@
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="n">
-        <v>6</v>
+        <v>1.16</v>
       </c>
       <c r="Z16" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.6</v>
+        <v>15</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.01944444444444445</v>
+        <v>0.023864258347017</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1472222222222222</v>
+        <v>0.8382047071702244</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.2472222222222222</v>
+        <v>0.1189928845101259</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.6055555555555555</v>
+        <v>0.04280240831964967</v>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2018-2019</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2121,27 +2201,27 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>43722</v>
+        <v>43583</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Sp Braga</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -2157,28 +2237,28 @@
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="O17" t="n">
+        <v>3</v>
+      </c>
+      <c r="P17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>14</v>
+      </c>
+      <c r="R17" t="n">
+        <v>16</v>
+      </c>
+      <c r="S17" t="n">
         <v>4</v>
       </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>13</v>
-      </c>
-      <c r="R17" t="n">
-        <v>14</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1</v>
-      </c>
       <c r="T17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2189,31 +2269,36 @@
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="n">
-        <v>1.12</v>
+        <v>5.25</v>
       </c>
       <c r="Z17" t="n">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="AA17" t="n">
-        <v>21</v>
+        <v>1.65</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.02182539682539682</v>
+        <v>0.02106782106782109</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.8710317460317459</v>
+        <v>0.1694083694083694</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.1031746031746032</v>
+        <v>0.2455988455988456</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.0257936507936508</v>
+        <v>0.584992784992785</v>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2018-2019</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2222,27 +2307,27 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>43729</v>
+        <v>43589</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -2258,28 +2343,28 @@
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="N18" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R18" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2290,31 +2375,36 @@
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="n">
-        <v>9</v>
+        <v>1.12</v>
       </c>
       <c r="Z18" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.33</v>
+        <v>17</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.02099693678641046</v>
+        <v>0.02310924369747898</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.09011417432470065</v>
+        <v>0.8697478991596638</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.1790030632135896</v>
+        <v>0.09453781512605043</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.7308827624617098</v>
+        <v>0.03571428571428573</v>
+      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2018-2019</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2323,67 +2413,67 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>43736</v>
+        <v>43597</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Setubal</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
+        <v>12</v>
+      </c>
+      <c r="N19" t="n">
         <v>13</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
+        <v>6</v>
+      </c>
+      <c r="P19" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q19" t="n">
         <v>9</v>
       </c>
-      <c r="O19" t="n">
+      <c r="R19" t="n">
+        <v>11</v>
+      </c>
+      <c r="S19" t="n">
         <v>3</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>11</v>
-      </c>
-      <c r="R19" t="n">
-        <v>8</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4</v>
       </c>
       <c r="T19" t="n">
         <v>4</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2391,31 +2481,36 @@
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="n">
-        <v>1.12</v>
+        <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA19" t="n">
-        <v>21</v>
+        <v>1.18</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.02182539682539682</v>
+        <v>0.02454936776970677</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.8710317460317459</v>
+        <v>0.05878396556362656</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.1031746031746032</v>
+        <v>0.1183077750874361</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.0257936507936508</v>
+        <v>0.8229082593489374</v>
+      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2019-2020</t>
+          <t>2018-2019</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2424,64 +2519,64 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>43765</v>
+        <v>43603</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="N20" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="O20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="R20" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2492,25 +2587,30 @@
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="n">
-        <v>10</v>
+        <v>1.08</v>
       </c>
       <c r="Z20" t="n">
-        <v>5.25</v>
+        <v>11</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.28</v>
+        <v>21</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.02390873015873011</v>
+        <v>0.02148468815135477</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.07609126984126989</v>
+        <v>0.9044412377745711</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.1665674603174604</v>
+        <v>0.06942440275773613</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.7573412698412699</v>
+        <v>0.02613435946769284</v>
+      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2525,7 +2625,7 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>43768</v>
+        <v>43687</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2534,11 +2634,11 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2549,7 +2649,7 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2561,34 +2661,34 @@
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
@@ -2613,6 +2713,11 @@
       <c r="AE21" t="n">
         <v>0.05281461833185969</v>
       </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2626,64 +2731,64 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>43771</v>
+        <v>43694</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="N22" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="O22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="n">
         <v>11</v>
       </c>
       <c r="R22" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2694,25 +2799,30 @@
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="n">
-        <v>1.33</v>
+        <v>15</v>
       </c>
       <c r="Z22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA22" t="n">
-        <v>9</v>
+        <v>1.16</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.02099693678641046</v>
+        <v>0.023864258347017</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.7308827624617098</v>
+        <v>0.04280240831964967</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.1790030632135896</v>
+        <v>0.1189928845101259</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.09011417432470065</v>
+        <v>0.8382047071702244</v>
+      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2727,20 +2837,20 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>43778</v>
+        <v>43701</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -2751,40 +2861,40 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N23" t="n">
         <v>11</v>
       </c>
       <c r="O23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2795,25 +2905,30 @@
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="n">
-        <v>6.5</v>
+        <v>1.9</v>
       </c>
       <c r="Z23" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.44</v>
+        <v>4.33</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.02350427350427349</v>
+        <v>0.02165165979436064</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.1303418803418804</v>
+        <v>0.5046641296793235</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.1987179487179487</v>
+        <v>0.2860406478979471</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.6709401709401709</v>
+        <v>0.2092952224227294</v>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2828,67 +2943,67 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>43799</v>
+        <v>43709</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Sp Braga</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Maritimo</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
         <v>4</v>
       </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N24" t="n">
         <v>12</v>
       </c>
       <c r="O24" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R24" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2896,25 +3011,30 @@
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="n">
-        <v>1.16</v>
+        <v>6</v>
       </c>
       <c r="Z24" t="n">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="AA24" t="n">
-        <v>13</v>
+        <v>1.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.02410845859121724</v>
+        <v>0.01944444444444445</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.8379605069260242</v>
+        <v>0.1472222222222222</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.1092248747421161</v>
+        <v>0.2472222222222222</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.05281461833185969</v>
+        <v>0.6055555555555555</v>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -2929,61 +3049,61 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>43805</v>
+        <v>43722</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N25" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="R25" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
         <v>4</v>
@@ -2997,25 +3117,30 @@
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="n">
-        <v>7</v>
+        <v>1.12</v>
       </c>
       <c r="Z25" t="n">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.55</v>
+        <v>21</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.02193207031916707</v>
+        <v>0.02182539682539682</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.1209250725379758</v>
+        <v>0.8710317460317459</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.2558457074586107</v>
+        <v>0.1031746031746032</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.6232292200034135</v>
+        <v>0.0257936507936508</v>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3030,61 +3155,61 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>43813</v>
+        <v>43729</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="N26" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="O26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q26" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="R26" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T26" t="n">
         <v>2</v>
@@ -3098,25 +3223,30 @@
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="n">
-        <v>1.2</v>
+        <v>9</v>
       </c>
       <c r="Z26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AA26" t="n">
-        <v>12</v>
+        <v>1.33</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.01984126984126984</v>
+        <v>0.02099693678641046</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.8134920634920635</v>
+        <v>0.09011417432470065</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.123015873015873</v>
+        <v>0.1790030632135896</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.06349206349206349</v>
+        <v>0.7308827624617098</v>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -3131,64 +3261,64 @@
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>43834</v>
+        <v>43736</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Guimaraes</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Setubal</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
+        <v>13</v>
+      </c>
+      <c r="N27" t="n">
+        <v>9</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
         <v>11</v>
       </c>
-      <c r="N27" t="n">
-        <v>4</v>
-      </c>
-      <c r="O27" t="n">
-        <v>5</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>12</v>
-      </c>
       <c r="R27" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="S27" t="n">
         <v>4</v>
       </c>
       <c r="T27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U27" t="n">
         <v>1</v>
@@ -3199,25 +3329,30 @@
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="n">
-        <v>4.5</v>
+        <v>1.12</v>
       </c>
       <c r="Z27" t="n">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.66</v>
+        <v>21</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.02090903295722575</v>
+        <v>0.02182539682539682</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.2013131892649964</v>
+        <v>0.8710317460317459</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.2171862051380123</v>
+        <v>0.1031746031746032</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.5815006055969911</v>
+        <v>0.0257936507936508</v>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -3232,27 +3367,27 @@
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>43840</v>
+        <v>43765</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Aves</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -3268,25 +3403,25 @@
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="N28" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O28" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="R28" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="S28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T28" t="n">
         <v>2</v>
@@ -3300,25 +3435,30 @@
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="n">
-        <v>1.08</v>
+        <v>10</v>
       </c>
       <c r="Z28" t="n">
-        <v>11</v>
+        <v>5.25</v>
       </c>
       <c r="AA28" t="n">
-        <v>21</v>
+        <v>1.28</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.02148468815135477</v>
+        <v>0.02390873015873011</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.9044412377745711</v>
+        <v>0.07609126984126989</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.06942440275773613</v>
+        <v>0.1665674603174604</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.02613435946769284</v>
+        <v>0.7573412698412699</v>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3333,64 +3473,64 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>43847</v>
+        <v>43768</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sp Lisbon</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O29" t="n">
         <v>6</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q29" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="R29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -3401,25 +3541,30 @@
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="n">
-        <v>3.75</v>
+        <v>1.16</v>
       </c>
       <c r="Z29" t="n">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.02026143790849673</v>
+        <v>0.02410845859121724</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.2464052287581699</v>
+        <v>0.8379605069260242</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.2738562091503268</v>
+        <v>0.1092248747421161</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.4797385620915033</v>
+        <v>0.05281461833185969</v>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3434,64 +3579,64 @@
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>43856</v>
+        <v>43771</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N30" t="n">
+        <v>3</v>
+      </c>
+      <c r="O30" t="n">
+        <v>4</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>11</v>
       </c>
-      <c r="O30" t="n">
-        <v>2</v>
-      </c>
-      <c r="P30" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>17</v>
-      </c>
       <c r="R30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="n">
         <v>3</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -3502,25 +3647,30 @@
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="n">
-        <v>10</v>
+        <v>1.33</v>
       </c>
       <c r="Z30" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AA30" t="n">
-        <v>1.33</v>
+        <v>9</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.02080200501253134</v>
+        <v>0.02099693678641046</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.07919799498746867</v>
+        <v>0.7308827624617098</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.1897243107769423</v>
+        <v>0.1790030632135896</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.7310776942355889</v>
+        <v>0.09011417432470065</v>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -3535,31 +3685,31 @@
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>43861</v>
+        <v>43778</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Belenenses</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3574,25 +3724,25 @@
         <v>12</v>
       </c>
       <c r="N31" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O31" t="n">
+        <v>3</v>
+      </c>
+      <c r="P31" t="n">
         <v>6</v>
       </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
       <c r="Q31" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="R31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3603,25 +3753,30 @@
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="n">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>23</v>
+        <v>1.44</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.0212267603571951</v>
+        <v>0.02350427350427349</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.887864148733714</v>
+        <v>0.1303418803418804</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.089884350753916</v>
+        <v>0.1987179487179487</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.02225150051237012</v>
+        <v>0.6709401709401709</v>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -3636,23 +3791,23 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>43869</v>
+        <v>43799</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Maritimo</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -3663,7 +3818,7 @@
         <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3672,31 +3827,31 @@
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N32" t="n">
+        <v>12</v>
+      </c>
+      <c r="O32" t="n">
         <v>9</v>
       </c>
-      <c r="O32" t="n">
-        <v>4</v>
-      </c>
       <c r="P32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
         <v>12</v>
       </c>
       <c r="R32" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3704,25 +3859,30 @@
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="n">
-        <v>2.45</v>
+        <v>1.16</v>
       </c>
       <c r="Z32" t="n">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>2.87</v>
+        <v>13</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.0214292095825197</v>
+        <v>0.02410845859121724</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.3867340557236027</v>
+        <v>0.8379605069260242</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.286263098109788</v>
+        <v>0.1092248747421161</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.3270028461666092</v>
+        <v>0.05281461833185969</v>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3737,23 +3897,23 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>43876</v>
+        <v>43805</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sp Braga</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -3761,40 +3921,40 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
+        <v>9</v>
+      </c>
+      <c r="N33" t="n">
+        <v>11</v>
+      </c>
+      <c r="O33" t="n">
+        <v>5</v>
+      </c>
+      <c r="P33" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>17</v>
+      </c>
+      <c r="R33" t="n">
         <v>10</v>
       </c>
-      <c r="N33" t="n">
-        <v>12</v>
-      </c>
-      <c r="O33" t="n">
-        <v>3</v>
-      </c>
-      <c r="P33" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>21</v>
-      </c>
-      <c r="R33" t="n">
-        <v>16</v>
-      </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3805,25 +3965,30 @@
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="n">
-        <v>1.61</v>
+        <v>7</v>
       </c>
       <c r="Z33" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AA33" t="n">
-        <v>5.5</v>
+        <v>1.55</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.02203136299246141</v>
+        <v>0.02193207031916707</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.5990866494298988</v>
+        <v>0.1209250725379758</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.2411265317443807</v>
+        <v>0.2558457074586107</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.1597868188257204</v>
+        <v>0.6232292200034135</v>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -3838,64 +4003,64 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>43885</v>
+        <v>43813</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N34" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O34" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="R34" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3906,25 +4071,30 @@
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z34" t="n">
         <v>7</v>
       </c>
-      <c r="Z34" t="n">
-        <v>4.33</v>
-      </c>
       <c r="AA34" t="n">
-        <v>1.44</v>
+        <v>12</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.02274948983955912</v>
+        <v>0.01984126984126984</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.1201076530175837</v>
+        <v>0.8134920634920635</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.2081973923775309</v>
+        <v>0.123015873015873</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.6716949546048853</v>
+        <v>0.06349206349206349</v>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -3939,67 +4109,67 @@
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>43892</v>
+        <v>43834</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Guimaraes</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="N35" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O35" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R35" t="n">
         <v>15</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T35" t="n">
         <v>3</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -4007,25 +4177,30 @@
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="n">
-        <v>1.14</v>
+        <v>4.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>8.5</v>
+        <v>4.2</v>
       </c>
       <c r="AA35" t="n">
-        <v>13</v>
+        <v>1.66</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.02392103940091557</v>
+        <v>0.02090903295722575</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.8532719430552248</v>
+        <v>0.2013131892649964</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.09372601942261384</v>
+        <v>0.2171862051380123</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.05300203752216136</v>
+        <v>0.5815006055969911</v>
+      </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -4040,64 +4215,64 @@
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>43897</v>
+        <v>43840</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Setubal</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Aves</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
+        <v>28</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6</v>
+      </c>
+      <c r="O36" t="n">
+        <v>11</v>
+      </c>
+      <c r="P36" t="n">
         <v>3</v>
       </c>
-      <c r="N36" t="n">
-        <v>15</v>
-      </c>
-      <c r="O36" t="n">
-        <v>2</v>
-      </c>
-      <c r="P36" t="n">
-        <v>6</v>
-      </c>
       <c r="Q36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S36" t="n">
         <v>4</v>
       </c>
       <c r="T36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -4108,25 +4283,30 @@
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="n">
-        <v>8.5</v>
+        <v>1.08</v>
       </c>
       <c r="Z36" t="n">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="AA36" t="n">
-        <v>1.33</v>
+        <v>21</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.02668435795370779</v>
+        <v>0.02148468815135477</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.09096270086982162</v>
+        <v>0.9044412377745711</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.1838419578357659</v>
+        <v>0.06942440275773613</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.7251953412944124</v>
+        <v>0.02613435946769284</v>
+      </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -4141,27 +4321,27 @@
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>43986</v>
+        <v>43847</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Sp Lisbon</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -4177,28 +4357,28 @@
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N37" t="n">
+        <v>9</v>
+      </c>
+      <c r="O37" t="n">
+        <v>6</v>
+      </c>
+      <c r="P37" t="n">
         <v>4</v>
       </c>
-      <c r="O37" t="n">
-        <v>5</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
       <c r="Q37" t="n">
+        <v>17</v>
+      </c>
+      <c r="R37" t="n">
         <v>11</v>
       </c>
-      <c r="R37" t="n">
-        <v>12</v>
-      </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -4209,25 +4389,30 @@
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="n">
-        <v>1.16</v>
+        <v>3.75</v>
       </c>
       <c r="Z37" t="n">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="AA37" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.023864258347017</v>
+        <v>0.02026143790849673</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.8382047071702244</v>
+        <v>0.2464052287581699</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.1189928845101259</v>
+        <v>0.2738562091503268</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.04280240831964967</v>
+        <v>0.4797385620915033</v>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -4242,11 +4427,11 @@
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>43992</v>
+        <v>43856</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -4255,21 +4440,21 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -4278,28 +4463,28 @@
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N38" t="n">
         <v>11</v>
       </c>
       <c r="O38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q38" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R38" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -4310,25 +4495,30 @@
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z38" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AA38" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.02287581699346404</v>
+        <v>0.02080200501253134</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.07919799498746867</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.1993464052287582</v>
+        <v>0.1897243107769423</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.7124183006535947</v>
+        <v>0.7310776942355889</v>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -4343,31 +4533,31 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>43999</v>
+        <v>43861</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Belenenses</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -4379,31 +4569,31 @@
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
+        <v>12</v>
+      </c>
+      <c r="N39" t="n">
+        <v>15</v>
+      </c>
+      <c r="O39" t="n">
+        <v>6</v>
+      </c>
+      <c r="P39" t="n">
         <v>5</v>
       </c>
-      <c r="N39" t="n">
-        <v>16</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1</v>
-      </c>
-      <c r="P39" t="n">
+      <c r="Q39" t="n">
+        <v>8</v>
+      </c>
+      <c r="R39" t="n">
+        <v>11</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="n">
         <v>4</v>
       </c>
-      <c r="Q39" t="n">
-        <v>16</v>
-      </c>
-      <c r="R39" t="n">
-        <v>21</v>
-      </c>
-      <c r="S39" t="n">
-        <v>3</v>
-      </c>
-      <c r="T39" t="n">
-        <v>2</v>
-      </c>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4411,25 +4601,30 @@
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="n">
-        <v>5.5</v>
+        <v>1.1</v>
       </c>
       <c r="Z39" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AA39" t="n">
-        <v>1.57</v>
+        <v>23</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.02292028565913913</v>
+        <v>0.0212267603571951</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.1588978961590427</v>
+        <v>0.887864148733714</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.2270797143408609</v>
+        <v>0.089884350753916</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.6140223895000965</v>
+        <v>0.02225150051237012</v>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -4444,64 +4639,64 @@
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>44005</v>
+        <v>43869</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F40" t="n">
         <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O40" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>12</v>
+      </c>
+      <c r="R40" t="n">
+        <v>19</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="n">
         <v>6</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>15</v>
-      </c>
-      <c r="R40" t="n">
-        <v>13</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -4512,25 +4707,878 @@
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.0214292095825197</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.3867340557236027</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.286263098109788</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.3270028461666092</v>
+      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2019-2020</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>43876</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Sp Braga</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>10</v>
+      </c>
+      <c r="N41" t="n">
+        <v>12</v>
+      </c>
+      <c r="O41" t="n">
+        <v>3</v>
+      </c>
+      <c r="P41" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>21</v>
+      </c>
+      <c r="R41" t="n">
+        <v>16</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="n">
+        <v>5</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.02203136299246141</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.5990866494298988</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.2411265317443807</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.1597868188257204</v>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2019-2020</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>43885</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>16</v>
+      </c>
+      <c r="N42" t="n">
+        <v>10</v>
+      </c>
+      <c r="O42" t="n">
+        <v>7</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>20</v>
+      </c>
+      <c r="R42" t="n">
+        <v>17</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.02274948983955912</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.1201076530175837</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.2081973923775309</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.6716949546048853</v>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2019-2020</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>43892</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>26</v>
+      </c>
+      <c r="N43" t="n">
+        <v>7</v>
+      </c>
+      <c r="O43" t="n">
+        <v>9</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>13</v>
+      </c>
+      <c r="R43" t="n">
+        <v>15</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="n">
+        <v>3</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.02392103940091557</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.8532719430552248</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.09372601942261384</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.05300203752216136</v>
+      </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2019-2020</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>43897</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Setubal</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="n">
+        <v>15</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2</v>
+      </c>
+      <c r="P44" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>13</v>
+      </c>
+      <c r="R44" t="n">
+        <v>12</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="n">
+        <v>3</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.02668435795370779</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.09096270086982162</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.1838419578357659</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.7251953412944124</v>
+      </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2019-2020</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>43986</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Tondela</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>26</v>
+      </c>
+      <c r="N45" t="n">
+        <v>4</v>
+      </c>
+      <c r="O45" t="n">
+        <v>5</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>11</v>
+      </c>
+      <c r="R45" t="n">
+        <v>12</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.023864258347017</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.8382047071702244</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.1189928845101259</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.04280240831964967</v>
+      </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2019-2020</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>43992</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>2</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>10</v>
+      </c>
+      <c r="N46" t="n">
+        <v>11</v>
+      </c>
+      <c r="O46" t="n">
+        <v>4</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>18</v>
+      </c>
+      <c r="R46" t="n">
+        <v>17</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="n">
+        <v>3</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0.02287581699346404</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0.08823529411764706</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.1993464052287582</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0.7124183006535947</v>
+      </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2019-2020</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>43999</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Rio Ave</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="n">
+        <v>16</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>16</v>
+      </c>
+      <c r="R47" t="n">
+        <v>21</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2</v>
+      </c>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0.02292028565913913</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0.1588978961590427</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.2270797143408609</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0.6140223895000965</v>
+      </c>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2019-2020</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>44005</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>3</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>15</v>
+      </c>
+      <c r="N48" t="n">
+        <v>8</v>
+      </c>
+      <c r="O48" t="n">
+        <v>8</v>
+      </c>
+      <c r="P48" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>15</v>
+      </c>
+      <c r="R48" t="n">
+        <v>13</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="n">
         <v>1.28</v>
       </c>
-      <c r="Z40" t="n">
+      <c r="Z48" t="n">
         <v>5</v>
       </c>
-      <c r="AA40" t="n">
+      <c r="AA48" t="n">
         <v>12</v>
       </c>
-      <c r="AB40" t="n">
+      <c r="AB48" t="n">
         <v>0.02152777777777774</v>
       </c>
-      <c r="AC40" t="n">
+      <c r="AC48" t="n">
         <v>0.7597222222222223</v>
       </c>
-      <c r="AD40" t="n">
+      <c r="AD48" t="n">
         <v>0.1784722222222223</v>
       </c>
-      <c r="AE40" t="n">
+      <c r="AE48" t="n">
         <v>0.06180555555555559</v>
+      </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
     </row>
   </sheetData>
